--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_272.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_272.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:37.760000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(26.08399, 30.414512)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.351768, 40.095623)]</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.360000', '0:00:21.740000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1004464285714286</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
